--- a/docs/database/chang.xlsx
+++ b/docs/database/chang.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ching chang\iSpan_Final-Project\iSpan_MSIT62_Final-Project\專案企劃\資料庫規劃\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ching chang\FinalProject_GameForum\FinalProject_GameForum\docs\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2F0218-9926-4C0D-AADB-75D37902BC90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B0F045-4448-41C5-A1BF-4082C949D60D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
